--- a/data/2023-24/version0/alemania_bundesliga_23-24.xlsx
+++ b/data/2023-24/version0/alemania_bundesliga_23-24.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,49 +486,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03.09.2023 10:30</t>
+          <t>23.09.2023 11:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Union Berlín</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Colonia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03.09.2023 08:30</t>
+          <t>23.09.2023 08:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Augsburgo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Colonia</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -540,76 +540,76 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02.09.2023 11:30</t>
+          <t>23.09.2023 08:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Borussia M'gladbach</t>
+          <t>Bayern Múnich</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bayern Múnich</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>02.09.2023 08:30</t>
+          <t>23.09.2023 08:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Augsburgo</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Wolfsburgo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02.09.2023 08:30</t>
+          <t>23.09.2023 08:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Borussia M'gladbach</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,34 +621,34 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>02.09.2023 08:30</t>
+          <t>23.09.2023 08:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Unión Berlín</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Hoffenheim</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Wolfsburgo</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02.09.2023 08:30</t>
+          <t>22.09.2023 13:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -658,218 +658,190 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Friburgo</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02.09.2023 08:30</t>
+          <t>17.09.2023 10:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mainz</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Borussia M'gladbach</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01.09.2023 13:30</t>
+          <t>17.09.2023 08:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>27.08.2023 10:30</t>
+          <t>16.09.2023 11:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bayern Múnich</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Augsburgo</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>27.08.2023 08:30</t>
+          <t>16.09.2023 08:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Colonia</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>26.08.2023 11:30</t>
+          <t>16.09.2023 08:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Borussia M'gladbach</t>
+          <t>Friburgo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>26.08.2023 08:30</t>
+          <t>16.09.2023 08:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>26.08.2023 08:30</t>
+          <t>16.09.2023 08:30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Colonia</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Wolfsburgo</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Augsburgo</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>26.08.2023 08:30</t>
+          <t>16.09.2023 08:30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Wolfsburgo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -877,339 +849,655 @@
           <t>Union Berlín</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>26.08.2023 08:30</t>
+          <t>15.09.2023 13:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Friburgo</t>
+          <t>Bayern Múnich</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>26.08.2023 08:30</t>
+          <t>03.09.2023 10:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Union Berlín</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>25.08.2023 13:30</t>
+          <t>03.09.2023 08:30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Colonia</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20.08.2023 10:30</t>
+          <t>02.09.2023 11:30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Borussia M'gladbach</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Bayern Múnich</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20.08.2023 08:30</t>
+          <t>02.09.2023 08:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Union Berlín</t>
+          <t>Augsburgo</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mainz</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19.08.2023 11:30</t>
+          <t>02.09.2023 08:30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Colonia</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>19.08.2023 08:30</t>
+          <t>02.09.2023 08:30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Augsburgo</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Borussia M'gladbach</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Wolfsburgo</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>19.08.2023 08:30</t>
+          <t>02.09.2023 08:30</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Friburgo</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>19.08.2023 08:30</t>
+          <t>02.09.2023 08:30</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Friburgo</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>19.08.2023 08:30</t>
+          <t>01.09.2023 13:30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Bochum</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>19.08.2023 08:30</t>
+          <t>27.08.2023 10:30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Wolfsburgo</t>
+          <t>Bayern Múnich</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Augsburgo</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>27.08.2023 08:30</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>26.08.2023 11:30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Borussia M'gladbach</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>26.08.2023 08:30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>26.08.2023 08:30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Colonia</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Wolfsburgo</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>26.08.2023 08:30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Union Berlín</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>26.08.2023 08:30</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Friburgo</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>26.08.2023 08:30</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>25.08.2023 13:30</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20.08.2023 10:30</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20.08.2023 08:30</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Union Berlín</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>19.08.2023 11:30</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Colonia</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>19.08.2023 08:30</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Augsburgo</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Borussia M'gladbach</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>4</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>19.08.2023 08:30</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>19.08.2023 08:30</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Friburgo</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>19.08.2023 08:30</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>19.08.2023 08:30</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Wolfsburgo</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>18.08.2023 13:30</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Werder Bremen</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Bayern Múnich</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
